--- a/table1_simulation_results.xlsx
+++ b/table1_simulation_results.xlsx
@@ -428,25 +428,25 @@
         <v>13</v>
       </c>
       <c r="E2">
-        <v>0.0021</v>
+        <v>0.0023</v>
       </c>
       <c r="F2">
-        <v>0.0057</v>
+        <v>0.0056</v>
       </c>
       <c r="G2">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="H2">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
       <c r="I2">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="J2">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
       <c r="K2">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +463,10 @@
         <v>13</v>
       </c>
       <c r="E3">
-        <v>0.0061</v>
+        <v>0.0058</v>
       </c>
       <c r="F3">
-        <v>0.025</v>
+        <v>0.0254</v>
       </c>
       <c r="G3">
         <v>0.0124</v>
@@ -481,7 +481,7 @@
         <v>0.008399999999999999</v>
       </c>
       <c r="K3">
-        <v>31.8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -498,25 +498,25 @@
         <v>13</v>
       </c>
       <c r="E4">
-        <v>0.02</v>
+        <v>0.0204</v>
       </c>
       <c r="F4">
-        <v>0.0725</v>
+        <v>0.0731</v>
       </c>
       <c r="G4">
-        <v>0.0148</v>
+        <v>0.0146</v>
       </c>
       <c r="H4">
-        <v>0.0103</v>
+        <v>0.0102</v>
       </c>
       <c r="I4">
-        <v>0.0152</v>
+        <v>0.0151</v>
       </c>
       <c r="J4">
-        <v>0.0155</v>
+        <v>0.0156</v>
       </c>
       <c r="K4">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="5">
@@ -533,25 +533,25 @@
         <v>34</v>
       </c>
       <c r="E5">
-        <v>0.001</v>
+        <v>0.0001</v>
       </c>
       <c r="F5">
-        <v>0.0042</v>
+        <v>0.0033</v>
       </c>
       <c r="G5">
-        <v>0.0005999999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="H5">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="I5">
-        <v>0.0005999999999999999</v>
+        <v>0.0005</v>
       </c>
       <c r="J5">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="K5">
-        <v>39.4</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="6">
@@ -568,10 +568,10 @@
         <v>34</v>
       </c>
       <c r="E6">
-        <v>0.0011</v>
+        <v>0.0014</v>
       </c>
       <c r="F6">
-        <v>0.014</v>
+        <v>0.0139</v>
       </c>
       <c r="G6">
         <v>0.0032</v>
@@ -586,7 +586,7 @@
         <v>0.0029</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="7">
@@ -603,10 +603,10 @@
         <v>34</v>
       </c>
       <c r="E7">
-        <v>0.0044</v>
+        <v>0.0058</v>
       </c>
       <c r="F7">
-        <v>0.0238</v>
+        <v>0.0253</v>
       </c>
       <c r="G7">
         <v>0.0038</v>
@@ -618,10 +618,10 @@
         <v>0.0038</v>
       </c>
       <c r="J7">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
       <c r="K7">
-        <v>-3</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="8">
@@ -638,25 +638,25 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>0.0108</v>
+        <v>0.015</v>
       </c>
       <c r="F8">
-        <v>0.0069</v>
+        <v>0.0083</v>
       </c>
       <c r="G8">
-        <v>0.0077</v>
+        <v>0.0065</v>
       </c>
       <c r="H8">
-        <v>0.0022</v>
+        <v>0.0021</v>
       </c>
       <c r="I8">
-        <v>0.0078</v>
+        <v>0.0068</v>
       </c>
       <c r="J8">
-        <v>0.0023</v>
+        <v>0.0021</v>
       </c>
       <c r="K8">
-        <v>70.90000000000001</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +673,25 @@
         <v>13</v>
       </c>
       <c r="E9">
-        <v>0.0141</v>
+        <v>0.0155</v>
       </c>
       <c r="F9">
-        <v>0.0038</v>
+        <v>0.0046</v>
       </c>
       <c r="G9">
-        <v>0.017</v>
+        <v>0.0165</v>
       </c>
       <c r="H9">
-        <v>0.0104</v>
+        <v>0.0103</v>
       </c>
       <c r="I9">
-        <v>0.0171</v>
+        <v>0.0167</v>
       </c>
       <c r="J9">
-        <v>0.0104</v>
+        <v>0.0103</v>
       </c>
       <c r="K9">
-        <v>39.2</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>0.0122</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F10">
-        <v>0.0377</v>
+        <v>0.0364</v>
       </c>
       <c r="G10">
-        <v>0.0176</v>
+        <v>0.0179</v>
       </c>
       <c r="H10">
-        <v>0.0124</v>
+        <v>0.0125</v>
       </c>
       <c r="I10">
-        <v>0.0178</v>
+        <v>0.018</v>
       </c>
       <c r="J10">
         <v>0.0138</v>
       </c>
       <c r="K10">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="11">
@@ -743,25 +743,25 @@
         <v>34</v>
       </c>
       <c r="E11">
-        <v>0.0052</v>
+        <v>0.0046</v>
       </c>
       <c r="F11">
-        <v>0.0034</v>
+        <v>0.003</v>
       </c>
       <c r="G11">
-        <v>0.0024</v>
+        <v>0.0026</v>
       </c>
       <c r="H11">
         <v>0.0013</v>
       </c>
       <c r="I11">
-        <v>0.0025</v>
+        <v>0.0026</v>
       </c>
       <c r="J11">
         <v>0.0013</v>
       </c>
       <c r="K11">
-        <v>47.4</v>
+        <v>48.4</v>
       </c>
     </row>
     <row r="12">
@@ -778,10 +778,10 @@
         <v>34</v>
       </c>
       <c r="E12">
-        <v>0.0029</v>
+        <v>0.0039</v>
       </c>
       <c r="F12">
-        <v>0.0043</v>
+        <v>0.0037</v>
       </c>
       <c r="G12">
         <v>0.0043</v>
@@ -796,7 +796,7 @@
         <v>0.0036</v>
       </c>
       <c r="K12">
-        <v>16</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="13">
@@ -813,25 +813,25 @@
         <v>34</v>
       </c>
       <c r="E13">
-        <v>0.0037</v>
+        <v>0.0026</v>
       </c>
       <c r="F13">
-        <v>0.0133</v>
+        <v>0.0123</v>
       </c>
       <c r="G13">
-        <v>0.0049</v>
+        <v>0.0047</v>
       </c>
       <c r="H13">
+        <v>0.0041</v>
+      </c>
+      <c r="I13">
+        <v>0.0047</v>
+      </c>
+      <c r="J13">
         <v>0.0043</v>
       </c>
-      <c r="I13">
-        <v>0.0049</v>
-      </c>
-      <c r="J13">
-        <v>0.0045</v>
-      </c>
       <c r="K13">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="14">
@@ -848,25 +848,25 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>0.0246</v>
+        <v>0.026</v>
       </c>
       <c r="F14">
-        <v>0.0199</v>
+        <v>0.0207</v>
       </c>
       <c r="G14">
-        <v>0.0115</v>
+        <v>0.0116</v>
       </c>
       <c r="H14">
-        <v>0.0034</v>
+        <v>0.0032</v>
       </c>
       <c r="I14">
-        <v>0.0121</v>
+        <v>0.0122</v>
       </c>
       <c r="J14">
-        <v>0.0038</v>
+        <v>0.0037</v>
       </c>
       <c r="K14">
-        <v>68.8</v>
+        <v>69.90000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -883,25 +883,25 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.0144</v>
+        <v>0.0216</v>
       </c>
       <c r="F15">
-        <v>0.0265</v>
+        <v>0.0326</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
       <c r="H15">
-        <v>0.0125</v>
+        <v>0.0118</v>
       </c>
       <c r="I15">
-        <v>0.0202</v>
+        <v>0.0194</v>
       </c>
       <c r="J15">
-        <v>0.0131</v>
+        <v>0.0128</v>
       </c>
       <c r="K15">
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="16">
@@ -918,25 +918,25 @@
         <v>13</v>
       </c>
       <c r="E16">
-        <v>0.0076</v>
+        <v>0.0011</v>
       </c>
       <c r="F16">
-        <v>0.0067</v>
+        <v>0.0007</v>
       </c>
       <c r="G16">
-        <v>0.0202</v>
+        <v>0.0188</v>
       </c>
       <c r="H16">
-        <v>0.0141</v>
+        <v>0.0132</v>
       </c>
       <c r="I16">
-        <v>0.0202</v>
+        <v>0.0188</v>
       </c>
       <c r="J16">
-        <v>0.0142</v>
+        <v>0.0132</v>
       </c>
       <c r="K16">
-        <v>30</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="17">
@@ -953,25 +953,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="F17">
-        <v>0.007900000000000001</v>
+        <v>0.0081</v>
       </c>
       <c r="G17">
-        <v>0.0047</v>
+        <v>0.0044</v>
       </c>
       <c r="H17">
-        <v>0.0024</v>
+        <v>0.0022</v>
       </c>
       <c r="I17">
-        <v>0.0047</v>
+        <v>0.0044</v>
       </c>
       <c r="J17">
-        <v>0.0025</v>
+        <v>0.0022</v>
       </c>
       <c r="K17">
-        <v>47.8</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="18">
@@ -988,25 +988,25 @@
         <v>34</v>
       </c>
       <c r="E18">
-        <v>0.007</v>
+        <v>0.0057</v>
       </c>
       <c r="F18">
-        <v>0.0072</v>
+        <v>0.0061</v>
       </c>
       <c r="G18">
-        <v>0.0053</v>
+        <v>0.0049</v>
       </c>
       <c r="H18">
-        <v>0.0044</v>
+        <v>0.0041</v>
       </c>
       <c r="I18">
-        <v>0.0053</v>
+        <v>0.005</v>
       </c>
       <c r="J18">
-        <v>0.0044</v>
+        <v>0.0042</v>
       </c>
       <c r="K18">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="19">
@@ -1023,25 +1023,25 @@
         <v>34</v>
       </c>
       <c r="E19">
-        <v>0.0016</v>
+        <v>0.0002</v>
       </c>
       <c r="F19">
-        <v>0.0015</v>
+        <v>0.0001</v>
       </c>
       <c r="G19">
-        <v>0.0052</v>
+        <v>0.0049</v>
       </c>
       <c r="H19">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
       <c r="I19">
-        <v>0.0052</v>
+        <v>0.0049</v>
       </c>
       <c r="J19">
-        <v>0.0046</v>
+        <v>0.0043</v>
       </c>
       <c r="K19">
-        <v>11.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="20">
@@ -1058,25 +1058,25 @@
         <v>13</v>
       </c>
       <c r="E20">
-        <v>0.0495</v>
+        <v>0.037</v>
       </c>
       <c r="F20">
-        <v>0.0411</v>
+        <v>0.0334</v>
       </c>
       <c r="G20">
-        <v>0.0134</v>
+        <v>0.0156</v>
       </c>
       <c r="H20">
-        <v>0.0037</v>
+        <v>0.0041</v>
       </c>
       <c r="I20">
-        <v>0.0158</v>
+        <v>0.017</v>
       </c>
       <c r="J20">
-        <v>0.0054</v>
+        <v>0.0052</v>
       </c>
       <c r="K20">
-        <v>66.2</v>
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1093,25 +1093,25 @@
         <v>13</v>
       </c>
       <c r="E21">
-        <v>0.0381</v>
+        <v>0.0304</v>
       </c>
       <c r="F21">
-        <v>0.0692</v>
+        <v>0.0624</v>
       </c>
       <c r="G21">
-        <v>0.0194</v>
+        <v>0.0202</v>
       </c>
       <c r="H21">
-        <v>0.0117</v>
+        <v>0.0122</v>
       </c>
       <c r="I21">
-        <v>0.0208</v>
+        <v>0.0211</v>
       </c>
       <c r="J21">
-        <v>0.0165</v>
+        <v>0.0161</v>
       </c>
       <c r="K21">
-        <v>20.7</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="22">
@@ -1128,25 +1128,25 @@
         <v>13</v>
       </c>
       <c r="E22">
-        <v>0.0155</v>
+        <v>0.0108</v>
       </c>
       <c r="F22">
-        <v>0.0415</v>
+        <v>0.0371</v>
       </c>
       <c r="G22">
-        <v>0.0164</v>
+        <v>0.0184</v>
       </c>
       <c r="H22">
-        <v>0.0116</v>
+        <v>0.0129</v>
       </c>
       <c r="I22">
-        <v>0.0167</v>
+        <v>0.0185</v>
       </c>
       <c r="J22">
-        <v>0.0133</v>
+        <v>0.0142</v>
       </c>
       <c r="K22">
-        <v>20.5</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="23">
@@ -1163,25 +1163,25 @@
         <v>34</v>
       </c>
       <c r="E23">
-        <v>0.0152</v>
+        <v>0.0098</v>
       </c>
       <c r="F23">
-        <v>0.0177</v>
+        <v>0.0135</v>
       </c>
       <c r="G23">
-        <v>0.0063</v>
+        <v>0.0059</v>
       </c>
       <c r="H23">
+        <v>0.0029</v>
+      </c>
+      <c r="I23">
+        <v>0.006</v>
+      </c>
+      <c r="J23">
         <v>0.003</v>
       </c>
-      <c r="I23">
-        <v>0.0065</v>
-      </c>
-      <c r="J23">
-        <v>0.0034</v>
-      </c>
       <c r="K23">
-        <v>48.3</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="24">
@@ -1198,25 +1198,25 @@
         <v>34</v>
       </c>
       <c r="E24">
-        <v>0.0119</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="F24">
-        <v>0.0196</v>
+        <v>0.0168</v>
       </c>
       <c r="G24">
-        <v>0.0052</v>
+        <v>0.0051</v>
       </c>
       <c r="H24">
         <v>0.0043</v>
       </c>
       <c r="I24">
-        <v>0.0053</v>
+        <v>0.0052</v>
       </c>
       <c r="J24">
-        <v>0.0046</v>
+        <v>0.0045</v>
       </c>
       <c r="K24">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="25">
@@ -1233,16 +1233,16 @@
         <v>34</v>
       </c>
       <c r="E25">
-        <v>0.0048</v>
+        <v>0.0027</v>
       </c>
       <c r="F25">
-        <v>0.0144</v>
+        <v>0.0125</v>
       </c>
       <c r="G25">
-        <v>0.0046</v>
+        <v>0.0047</v>
       </c>
       <c r="H25">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="I25">
         <v>0.0047</v>
@@ -1251,7 +1251,7 @@
         <v>0.0043</v>
       </c>
       <c r="K25">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="26">
@@ -1268,25 +1268,25 @@
         <v>13</v>
       </c>
       <c r="E26">
-        <v>0.0455</v>
+        <v>0.047</v>
       </c>
       <c r="F26">
-        <v>0.0467</v>
+        <v>0.0471</v>
       </c>
       <c r="G26">
-        <v>0.0208</v>
+        <v>0.0196</v>
       </c>
       <c r="H26">
-        <v>0.005</v>
+        <v>0.0049</v>
       </c>
       <c r="I26">
-        <v>0.0229</v>
+        <v>0.0218</v>
       </c>
       <c r="J26">
         <v>0.0071</v>
       </c>
       <c r="K26">
-        <v>68.8</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1303,25 +1303,25 @@
         <v>13</v>
       </c>
       <c r="E27">
-        <v>0.0415</v>
+        <v>0.0398</v>
       </c>
       <c r="F27">
-        <v>0.09379999999999999</v>
+        <v>0.0926</v>
       </c>
       <c r="G27">
-        <v>0.0191</v>
+        <v>0.0187</v>
       </c>
       <c r="H27">
-        <v>0.0113</v>
+        <v>0.011</v>
       </c>
       <c r="I27">
-        <v>0.0208</v>
+        <v>0.0203</v>
       </c>
       <c r="J27">
-        <v>0.0201</v>
+        <v>0.0196</v>
       </c>
       <c r="K27">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="28">
@@ -1338,25 +1338,25 @@
         <v>13</v>
       </c>
       <c r="E28">
-        <v>0.0227</v>
+        <v>0.0204</v>
       </c>
       <c r="F28">
-        <v>0.0751</v>
+        <v>0.0732</v>
       </c>
       <c r="G28">
-        <v>0.0148</v>
+        <v>0.0142</v>
       </c>
       <c r="H28">
-        <v>0.0105</v>
+        <v>0.01</v>
       </c>
       <c r="I28">
+        <v>0.0146</v>
+      </c>
+      <c r="J28">
         <v>0.0153</v>
       </c>
-      <c r="J28">
-        <v>0.0161</v>
-      </c>
       <c r="K28">
-        <v>-5.2</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="29">
@@ -1373,25 +1373,25 @@
         <v>34</v>
       </c>
       <c r="E29">
-        <v>0.0111</v>
+        <v>0.0121</v>
       </c>
       <c r="F29">
-        <v>0.0182</v>
+        <v>0.0186</v>
       </c>
       <c r="G29">
-        <v>0.0072</v>
+        <v>0.0073</v>
       </c>
       <c r="H29">
         <v>0.0035</v>
       </c>
       <c r="I29">
-        <v>0.0073</v>
+        <v>0.0074</v>
       </c>
       <c r="J29">
         <v>0.0038</v>
       </c>
       <c r="K29">
-        <v>48.2</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="30">
@@ -1408,25 +1408,25 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>0.0083</v>
+        <v>0.0098</v>
       </c>
       <c r="F30">
-        <v>0.0243</v>
+        <v>0.0256</v>
       </c>
       <c r="G30">
         <v>0.0048</v>
       </c>
       <c r="H30">
-        <v>0.0039</v>
+        <v>0.004</v>
       </c>
       <c r="I30">
-        <v>0.0048</v>
+        <v>0.0049</v>
       </c>
       <c r="J30">
-        <v>0.0045</v>
+        <v>0.0046</v>
       </c>
       <c r="K30">
-        <v>6.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1449,19 +1449,19 @@
         <v>0.024</v>
       </c>
       <c r="G31">
-        <v>0.0036</v>
+        <v>0.0038</v>
       </c>
       <c r="H31">
-        <v>0.0032</v>
+        <v>0.0034</v>
       </c>
       <c r="I31">
-        <v>0.0036</v>
+        <v>0.0038</v>
       </c>
       <c r="J31">
-        <v>0.0038</v>
+        <v>0.004</v>
       </c>
       <c r="K31">
-        <v>-4.4</v>
+        <v>-3.5</v>
       </c>
     </row>
   </sheetData>
